--- a/PUC Tracker.xlsx
+++ b/PUC Tracker.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\PUC-V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F7942-D78B-4F34-9DE1-1142A000871D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E94DAE-482A-4122-BAFD-03FE31045006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
     <sheet name="Enhancement" sheetId="2" r:id="rId2"/>
+    <sheet name="Menu" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="128">
   <si>
     <t>detailId</t>
   </si>
   <si>
-    <t>fixId</t>
-  </si>
-  <si>
     <t>supplierId</t>
   </si>
   <si>
@@ -353,6 +351,75 @@
   </si>
   <si>
     <t>Change approval interface</t>
+  </si>
+  <si>
+    <t>lomagua</t>
+  </si>
+  <si>
+    <t>LeD11</t>
+  </si>
+  <si>
+    <t>edwina</t>
+  </si>
+  <si>
+    <t>quochuyn</t>
+  </si>
+  <si>
+    <t>auq</t>
+  </si>
+  <si>
+    <t>PUC</t>
+  </si>
+  <si>
+    <t>PowerBI link</t>
+  </si>
+  <si>
+    <t>Mantenance</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Machine Registration</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Detail Mass Upload</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Approval List</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Machine Mofidication</t>
+  </si>
+  <si>
+    <t>Part Registration</t>
+  </si>
+  <si>
+    <t>Part Mofidication</t>
   </si>
 </sst>
 </file>
@@ -368,7 +435,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +488,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -738,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36536659-14FD-4079-9B4F-68A37DC0D68B}">
   <dimension ref="B1:R182"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,7 +834,7 @@
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
@@ -768,52 +842,52 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
@@ -830,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="2">
         <v>28</v>
@@ -845,7 +919,7 @@
         <v>70000</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -881,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="2">
         <v>137</v>
@@ -896,7 +970,7 @@
         <v>70000</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
@@ -932,10 +1006,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="2">
         <v>2909</v>
@@ -947,7 +1021,7 @@
         <v>70000</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -975,44 +1049,44 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.35">
@@ -1023,16 +1097,16 @@
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -1044,10 +1118,10 @@
         <v>1099969</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.35">
@@ -1058,16 +1132,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="2">
         <v>1</v>
@@ -1079,10 +1153,10 @@
         <v>1099969</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.35">
@@ -1093,16 +1167,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1114,10 +1188,10 @@
         <v>1099969</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.35">
@@ -1126,35 +1200,35 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O14" s="1"/>
       <c r="Q14" s="1"/>
@@ -1164,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1179,10 +1253,10 @@
         <v>1099969</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O15" s="1"/>
       <c r="Q15" s="1"/>
@@ -1192,10 +1266,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1207,10 +1281,10 @@
         <v>1099969</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1221,35 +1295,35 @@
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1259,10 +1333,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1274,10 +1348,10 @@
         <v>1099969</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1287,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1302,10 +1376,10 @@
         <v>1099969</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O21" s="1"/>
       <c r="Q21" s="1"/>
@@ -1315,10 +1389,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
@@ -1330,10 +1404,10 @@
         <v>1099969</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O22" s="1"/>
       <c r="Q22" s="1"/>
@@ -1348,35 +1422,35 @@
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="K26" s="1"/>
       <c r="M26" s="1"/>
@@ -1386,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1407,23 +1481,23 @@
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" s="1"/>
       <c r="Q30" s="1"/>
@@ -1433,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1449,10 +1523,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1465,10 +1539,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1481,10 +1555,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -1498,26 +1572,26 @@
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O37" s="1"/>
       <c r="Q37" s="1"/>
@@ -1604,29 +1678,29 @@
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="F44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O44" s="1"/>
       <c r="Q44" s="1"/>
@@ -1642,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="3">
         <v>44487.428957870368</v>
@@ -1664,7 +1738,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F46" s="3">
         <v>44488.454305474537</v>
@@ -1686,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F47" s="3">
         <v>44488.560104479169</v>
@@ -1714,7 +1788,7 @@
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1"/>
       <c r="O51" s="1"/>
@@ -1722,28 +1796,28 @@
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O52" s="1"/>
       <c r="Q52" s="1"/>
@@ -1753,25 +1827,25 @@
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O53" s="1"/>
       <c r="Q53" s="1"/>
@@ -1781,25 +1855,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="2">
         <v>1</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O54" s="1"/>
     </row>
@@ -1808,25 +1882,25 @@
         <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="2">
         <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O55" s="1"/>
     </row>
@@ -1835,25 +1909,25 @@
         <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2">
         <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O56" s="1"/>
     </row>
@@ -1867,41 +1941,41 @@
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" s="1"/>
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O60" s="1"/>
     </row>
@@ -1964,10 +2038,10 @@
         <v>1099969</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O62" s="1"/>
     </row>
@@ -1976,40 +2050,40 @@
     </row>
     <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B65" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" s="2" t="s">
+      <c r="F65" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="G65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="O65" s="1"/>
     </row>
@@ -2084,7 +2158,7 @@
         <v>3</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2">
         <v>4</v>
@@ -2152,151 +2226,970 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>89</v>
+      </c>
       <c r="O72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2">
+        <v>1</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
     <row r="75" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" s="2">
+        <v>1</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="2">
+        <v>1</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E77" s="2">
+        <v>1</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O80" s="1"/>
     </row>
-    <row r="81" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2">
+        <v>1</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="2">
+        <v>1</v>
+      </c>
+      <c r="H81" s="3">
+        <v>44558.552389895834</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1099967</v>
+      </c>
+      <c r="J81" s="3">
+        <v>44558.574363738429</v>
+      </c>
+      <c r="K81" s="2">
+        <v>1099967</v>
+      </c>
       <c r="O81" s="1"/>
     </row>
-    <row r="82" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B82" s="2">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="D82" s="2">
+        <v>1</v>
+      </c>
+      <c r="E82" s="2">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2">
+        <v>1</v>
+      </c>
+      <c r="H82" s="3">
+        <v>44559.606183912038</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B83" s="2">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2303137</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>1</v>
+      </c>
+      <c r="F83" s="2">
+        <v>4</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1</v>
+      </c>
+      <c r="H83" s="3">
+        <v>44574.614960185187</v>
+      </c>
+      <c r="I83" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J83" s="3">
+        <v>44575.377918437502</v>
+      </c>
+      <c r="K83" s="2">
+        <v>2240355</v>
+      </c>
       <c r="O83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B84" s="2">
+        <v>11</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>1</v>
+      </c>
+      <c r="F84" s="2">
+        <v>27</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1</v>
+      </c>
+      <c r="H84" s="3">
+        <v>44574.618018171299</v>
+      </c>
+      <c r="I84" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J84" s="3">
+        <v>44575.378039930554</v>
+      </c>
+      <c r="K84" s="2">
+        <v>2240355</v>
+      </c>
       <c r="O84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B85" s="2">
+        <v>12</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>1</v>
+      </c>
+      <c r="F85" s="2">
+        <v>15</v>
+      </c>
+      <c r="G85" s="2">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>44574.618757326389</v>
+      </c>
+      <c r="I85" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B86" s="2">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2">
+        <v>21</v>
+      </c>
+      <c r="G86" s="2">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>44574.619318287034</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B87" s="2">
+        <v>14</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1601591</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2</v>
+      </c>
+      <c r="E87" s="2">
+        <v>1</v>
+      </c>
+      <c r="F87" s="2">
+        <v>21</v>
+      </c>
+      <c r="G87" s="2">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3">
+        <v>44574.624301192132</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B88" s="2">
+        <v>15</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>1</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="2">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>44574.636914120369</v>
+      </c>
+      <c r="I88" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B89" s="2">
+        <v>16</v>
+      </c>
+      <c r="C89" s="2">
+        <v>102789</v>
+      </c>
+      <c r="D89" s="2">
+        <v>1</v>
+      </c>
+      <c r="E89" s="2">
+        <v>1</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <v>1</v>
+      </c>
+      <c r="H89" s="3">
+        <v>44574.641451736112</v>
+      </c>
+      <c r="I89" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B90" s="2">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2205316</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="2">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>44574.698801157407</v>
+      </c>
+      <c r="I90" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B91" s="2">
+        <v>18</v>
+      </c>
+      <c r="C91" s="2">
+        <v>2501157</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
+      </c>
+      <c r="E91" s="2">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="2">
+        <v>1</v>
+      </c>
+      <c r="H91" s="3">
+        <v>44579.491816354166</v>
+      </c>
+      <c r="I91" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B92" s="2">
+        <v>19</v>
+      </c>
+      <c r="C92" s="2">
+        <v>2309514</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2</v>
+      </c>
+      <c r="E92" s="2">
+        <v>1</v>
+      </c>
+      <c r="F92" s="2">
+        <v>27</v>
+      </c>
+      <c r="G92" s="2">
+        <v>1</v>
+      </c>
+      <c r="H92" s="3">
+        <v>44581.553170601852</v>
+      </c>
+      <c r="I92" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B93" s="2">
+        <v>20</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2</v>
+      </c>
+      <c r="E93" s="2">
+        <v>1</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="3">
+        <v>44582.35732048611</v>
+      </c>
+      <c r="I93" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
+        <v>91</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B97" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="O97" s="1"/>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B98" s="2">
+        <v>1</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="D98" s="2">
+        <v>4</v>
+      </c>
+      <c r="E98" s="2">
+        <v>1</v>
+      </c>
+      <c r="F98" s="2">
+        <v>27</v>
+      </c>
+      <c r="G98" s="2">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>44558.565601851849</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="J98" s="3">
+        <v>44558.575780289349</v>
+      </c>
+      <c r="K98" s="2">
+        <v>1099967</v>
+      </c>
       <c r="O98" s="1"/>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
+      <c r="C99" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="D99" s="2">
+        <v>4</v>
+      </c>
+      <c r="E99" s="2">
+        <v>1</v>
+      </c>
+      <c r="F99" s="2">
+        <v>27</v>
+      </c>
+      <c r="G99" s="2">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>44558.602299849539</v>
+      </c>
+      <c r="I99" s="2">
+        <v>1099967</v>
+      </c>
+      <c r="J99" s="3">
+        <v>44559.005347951388</v>
+      </c>
+      <c r="K99" s="2">
+        <v>1099969</v>
+      </c>
       <c r="O99" s="1"/>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B100" s="2">
+        <v>3</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1</v>
+      </c>
+      <c r="F100" s="2">
+        <v>27</v>
+      </c>
+      <c r="G100" s="2">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>44559.005825428241</v>
+      </c>
+      <c r="I100" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="J100" s="3">
+        <v>44565.469251388888</v>
+      </c>
+      <c r="K100" s="2">
+        <v>1099969</v>
+      </c>
       <c r="O100" s="1"/>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B101" s="2">
+        <v>4</v>
+      </c>
+      <c r="C101" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="D101" s="2">
+        <v>4</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1</v>
+      </c>
+      <c r="F101" s="2">
+        <v>27</v>
+      </c>
+      <c r="G101" s="2">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>44559.607415081016</v>
+      </c>
+      <c r="I101" s="2">
+        <v>1099969</v>
+      </c>
+      <c r="J101" s="3">
+        <v>44565.468943749998</v>
+      </c>
+      <c r="K101" s="2">
+        <v>1099969</v>
+      </c>
       <c r="O101" s="1"/>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2309514</v>
+      </c>
+      <c r="D102" s="2">
+        <v>4</v>
+      </c>
+      <c r="E102" s="2">
+        <v>1</v>
+      </c>
+      <c r="F102" s="2">
+        <v>27</v>
+      </c>
+      <c r="G102" s="2">
+        <v>1</v>
+      </c>
+      <c r="H102" s="3">
+        <v>44575.442078275461</v>
+      </c>
+      <c r="I102" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O102" s="1"/>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B103" s="2">
+        <v>6</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" s="2">
+        <v>4</v>
+      </c>
+      <c r="E103" s="2">
+        <v>1</v>
+      </c>
+      <c r="F103" s="2">
+        <v>21</v>
+      </c>
+      <c r="G103" s="2">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
+        <v>44575.443104317128</v>
+      </c>
+      <c r="I103" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O103" s="1"/>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B104" s="2">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="2">
+        <v>4</v>
+      </c>
+      <c r="E104" s="2">
+        <v>1</v>
+      </c>
+      <c r="F104" s="2">
+        <v>15</v>
+      </c>
+      <c r="G104" s="2">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <v>44575.443366006948</v>
+      </c>
+      <c r="I104" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O104" s="1"/>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B105" s="2">
+        <v>8</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="2">
+        <v>4</v>
+      </c>
+      <c r="E105" s="2">
+        <v>1</v>
+      </c>
+      <c r="F105" s="2">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2">
+        <v>1</v>
+      </c>
+      <c r="H105" s="3">
+        <v>44575.443961076387</v>
+      </c>
+      <c r="I105" s="2">
+        <v>2240355</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="O105" s="1"/>
     </row>
-    <row r="106" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O106" s="1"/>
     </row>
-    <row r="107" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O107" s="1"/>
     </row>
-    <row r="108" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O108" s="1"/>
     </row>
-    <row r="109" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="15:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:17" x14ac:dyDescent="0.35">
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="15:17" x14ac:dyDescent="0.35">
@@ -2565,7 +3458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF29C7F6-4DB4-44E8-8455-8E338FEC0723}">
   <dimension ref="A3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2577,65 +3470,206 @@
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
         <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF894900-568A-4BAA-B8A2-76851BB63D25}">
+  <dimension ref="B2:C18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/PUC Tracker.xlsx
+++ b/PUC Tracker.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\PUC-V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E94DAE-482A-4122-BAFD-03FE31045006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A89C37D-79EA-42F4-B176-E16CDAB756B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10360" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
     <sheet name="Enhancement" sheetId="2" r:id="rId2"/>
     <sheet name="Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="CounterUpdate" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
   <si>
     <t>detailId</t>
   </si>
@@ -420,6 +421,15 @@
   </si>
   <si>
     <t>Part Mofidication</t>
+  </si>
+  <si>
+    <t>MachineName</t>
+  </si>
+  <si>
+    <t>RouteStep</t>
+  </si>
+  <si>
+    <t>custName</t>
   </si>
 </sst>
 </file>
@@ -812,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36536659-14FD-4079-9B4F-68A37DC0D68B}">
   <dimension ref="B1:R182"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3675,4 +3685,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80F8C26-965F-4DB6-AB4E-405A5B89ECC7}">
+  <dimension ref="B3:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PUC Tracker.xlsx
+++ b/PUC Tracker.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1099969\OneDrive - Jabil\Desktop\Development_Project\Web\GitHub\PUC-V1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A89C37D-79EA-42F4-B176-E16CDAB756B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5653E7A2-B740-421E-811E-15087A1F18DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D9DF3BC5-A219-488A-B707-D6423AA429FA}"/>
   </bookViews>
   <sheets>
     <sheet name="DatabaseTable" sheetId="1" r:id="rId1"/>
     <sheet name="Enhancement" sheetId="2" r:id="rId2"/>
-    <sheet name="Menu" sheetId="3" r:id="rId3"/>
-    <sheet name="CounterUpdate" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Menu" sheetId="3" r:id="rId4"/>
+    <sheet name="CounterUpdate" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="160">
   <si>
     <t>detailId</t>
   </si>
@@ -430,13 +431,100 @@
   </si>
   <si>
     <t>custName</t>
+  </si>
+  <si>
+    <t>00906212011427|Quality Inspection SCH_PCBA_B2BAY18_COATING TOP|SND PCBA Route 07|QC SCH_COATING_T|3/28/2022 8:53:59 AM|3/28/2022 8:53:59 AM|13|HCM_SCHNEIDER</t>
+  </si>
+  <si>
+    <t>BFT</t>
+  </si>
+  <si>
+    <t>RFT</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>DTT</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>APTC</t>
+  </si>
+  <si>
+    <t>Email triggering on detail part added</t>
+  </si>
+  <si>
+    <t>Email triggering on machine/fixture added</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Will use PBI instead</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>PN</t>
+  </si>
+  <si>
+    <t>CRD</t>
+  </si>
+  <si>
+    <t>Analysis Date</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>webpage / Edwin Script</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>count as 1</t>
+  </si>
+  <si>
+    <t>not ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>count as 2</t>
+  </si>
+  <si>
+    <t>SN1</t>
+  </si>
+  <si>
+    <t>PN1</t>
+  </si>
+  <si>
+    <t>CRD1</t>
+  </si>
+  <si>
+    <t>Analysis Date1</t>
+  </si>
+  <si>
+    <t>Analysis Date2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,8 +532,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,8 +565,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -494,11 +595,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -506,6 +642,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3466,19 +3621,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF29C7F6-4DB4-44E8-8455-8E338FEC0723}">
-  <dimension ref="A3:C11"/>
+  <dimension ref="A3:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B11" sqref="B11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="37.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -3488,16 +3644,22 @@
       <c r="C3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>97</v>
       </c>
@@ -3505,40 +3667,65 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3547,11 +3734,175 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A55C4D7-CDB9-4B84-B6ED-ED5E31AC91B8}">
+  <dimension ref="E6:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="5:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E7" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E9" s="12">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E10" s="12">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="14" spans="5:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="E14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E15" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF894900-568A-4BAA-B8A2-76851BB63D25}">
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3687,20 +4038,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80F8C26-965F-4DB6-AB4E-405A5B89ECC7}">
-  <dimension ref="B3:E6"/>
+  <dimension ref="B1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>24</v>
@@ -3716,22 +4073,80 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>13</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+      <c r="B6" s="2">
+        <v>14</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
